--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_1.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_0</t>
+          <t>model_3_1_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.783913317353419</v>
+        <v>0.3938518760383836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9498094204514089</v>
+        <v>0.2950945914788321</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5777851374414396</v>
+        <v>-0.3757217657599019</v>
       </c>
       <c r="E2" t="n">
-        <v>0.867144679999768</v>
+        <v>0.01489351509655346</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2391442954540253</v>
+        <v>0.6708273887634277</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1041131094098091</v>
+        <v>0.8525978922843933</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3944515883922577</v>
+        <v>1.38070011138916</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2407428771257401</v>
+        <v>1.101116538047791</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_1</t>
+          <t>model_3_1_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7874107288149877</v>
+        <v>0.4022612072430602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9510559950169147</v>
+        <v>0.2980495138885267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5708788086350074</v>
+        <v>-0.3125403898878389</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8662244410871683</v>
+        <v>0.04328221764052098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2352736741304398</v>
+        <v>0.6615206599235535</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1015272736549377</v>
+        <v>0.8490238785743713</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4009037911891937</v>
+        <v>1.317290067672729</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2424104064702988</v>
+        <v>1.069384694099426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_12</t>
+          <t>model_3_1_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7890034040402287</v>
+        <v>0.4092409567790825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.928898085656832</v>
+        <v>0.2451472509914322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.532529643899478</v>
+        <v>-0.09904503024820754</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8434916489623484</v>
+        <v>0.1031849232291139</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2335110604763031</v>
+        <v>0.6537961959838867</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1474906653165817</v>
+        <v>0.91301029920578</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4367312788963318</v>
+        <v>1.10302209854126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2836037576198578</v>
+        <v>1.002427697181702</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_13</t>
+          <t>model_3_1_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7900956028683785</v>
+        <v>0.4109394350476524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9261939281012876</v>
+        <v>0.2985134748522186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5308176401295008</v>
+        <v>-0.2425344303859989</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8414373827401068</v>
+        <v>0.07312798547488653</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2323022931814194</v>
+        <v>0.65191650390625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1531000584363937</v>
+        <v>0.8484627604484558</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4383306801319122</v>
+        <v>1.247030735015869</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2873262465000153</v>
+        <v>1.036024212837219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_2</t>
+          <t>model_3_1_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7928288246073484</v>
+        <v>0.4115407635989745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9590459409024834</v>
+        <v>0.2117654556381081</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5818535836255414</v>
+        <v>0.08604093065382878</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8737294138948817</v>
+        <v>0.1622658909900693</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2292774468660355</v>
+        <v>0.651250958442688</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08495327830314636</v>
+        <v>0.9533863067626953</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3906506896018982</v>
+        <v>0.9172664880752563</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2288108915090561</v>
+        <v>0.9363890886306763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_14</t>
+          <t>model_3_1_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7929699202611727</v>
+        <v>0.4115733954997896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9306659199728293</v>
+        <v>0.2558055473249926</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5367309212123281</v>
+        <v>-0.1153395129717119</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8455823244957639</v>
+        <v>0.1024058506379429</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2291212975978851</v>
+        <v>0.6512148976325989</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1438235491514206</v>
+        <v>0.9001188278198242</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4328062236309052</v>
+        <v>1.119375586509705</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2798153162002563</v>
+        <v>1.00329852104187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_15</t>
+          <t>model_3_1_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7934478762143212</v>
+        <v>0.4127132118981602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.931888454014031</v>
+        <v>0.2117347946403261</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5350499807594408</v>
+        <v>0.1009952487826695</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8459153574335605</v>
+        <v>0.1685672433128218</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2285923212766647</v>
+        <v>0.6499534249305725</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1412875801324844</v>
+        <v>0.9534233808517456</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4343766570091248</v>
+        <v>0.902258038520813</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2792118489742279</v>
+        <v>0.9293456077575684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_3</t>
+          <t>model_3_1_21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7935913190974488</v>
+        <v>0.4166326723679018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.958444289659471</v>
+        <v>0.2998827447789916</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5798009043993906</v>
+        <v>-0.200324558497482</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8728667653610435</v>
+        <v>0.09174742806755087</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2284335941076279</v>
+        <v>0.6456156969070435</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08620131760835648</v>
+        <v>0.8468065857887268</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3925684094429016</v>
+        <v>1.204668283462524</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2303740531206131</v>
+        <v>1.015212059020996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_19</t>
+          <t>model_3_1_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7940783282665422</v>
+        <v>0.4191467324253911</v>
       </c>
       <c r="C10" t="n">
-        <v>0.929654963736868</v>
+        <v>0.2863176500543526</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5364469046809257</v>
+        <v>-0.1408249454200614</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8449006423908283</v>
+        <v>0.1091168931855169</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2278946191072464</v>
+        <v>0.642833411693573</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1459206193685532</v>
+        <v>0.863213837146759</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4330715835094452</v>
+        <v>1.14495325088501</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2810505330562592</v>
+        <v>0.9957970976829529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_20</t>
+          <t>model_3_1_12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7942456668085979</v>
+        <v>0.4195577879652058</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9301703824930955</v>
+        <v>0.287364119712481</v>
       </c>
       <c r="D11" t="n">
-        <v>0.534538584425402</v>
+        <v>-0.1355751026217755</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8447500397750642</v>
+        <v>0.1119346122398783</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2277094274759293</v>
+        <v>0.6423785090446472</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1448514610528946</v>
+        <v>0.8619481325149536</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4348544180393219</v>
+        <v>1.139684438705444</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2813234925270081</v>
+        <v>0.9926475286483765</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_16</t>
+          <t>model_3_1_20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7944449796668993</v>
+        <v>0.4198423089939615</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9338583762094611</v>
+        <v>0.298393953625926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5356690597121841</v>
+        <v>-0.1716195180926749</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8472594017097114</v>
+        <v>0.1030235618510323</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2274888306856155</v>
+        <v>0.6420636177062988</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1372012495994568</v>
+        <v>0.8486072421073914</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4337982535362244</v>
+        <v>1.175859212875366</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2767763137817383</v>
+        <v>1.002608060836792</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_18</t>
+          <t>model_3_1_19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7949910990282154</v>
+        <v>0.4205764848778644</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9326362824515102</v>
+        <v>0.2983616593008557</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5379033835529097</v>
+        <v>-0.1649739238123886</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8470609701375167</v>
+        <v>0.1058129769575293</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2268844395875931</v>
+        <v>0.6412511467933655</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1397363245487213</v>
+        <v>0.8486464023590088</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4317108690738678</v>
+        <v>1.169189691543579</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2771359384059906</v>
+        <v>0.9994900822639465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_17</t>
+          <t>model_3_1_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7954494752817046</v>
+        <v>0.4218613314113581</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9367196394398858</v>
+        <v>0.2806334138040402</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5334247445850342</v>
+        <v>-0.1047676341566859</v>
       </c>
       <c r="E14" t="n">
-        <v>0.848449018527125</v>
+        <v>0.1210957950180442</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2263771444559097</v>
+        <v>0.639829158782959</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1312659829854965</v>
+        <v>0.8700889945030212</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4358950257301331</v>
+        <v>1.108765482902527</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2746206820011139</v>
+        <v>0.9824075102806091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_6</t>
+          <t>model_3_1_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7957398008463937</v>
+        <v>0.4218628268982997</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9574566219425003</v>
+        <v>0.2816693669345343</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5706428859482142</v>
+        <v>-0.1050496007442152</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8700463176163163</v>
+        <v>0.1215695019472159</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2260558605194092</v>
+        <v>0.6398274302482605</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08825009316205978</v>
+        <v>0.8688360452651978</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4011242091655731</v>
+        <v>1.10904848575592</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2354848831892014</v>
+        <v>0.9818779230117798</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_5</t>
+          <t>model_3_1_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7964390548690332</v>
+        <v>0.4220057600055157</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9612904153821714</v>
+        <v>0.2858328517151734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5783567794968117</v>
+        <v>-0.12234379034855</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8742412329633762</v>
+        <v>0.1166482454657525</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2252819836139679</v>
+        <v>0.6396693587303162</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08029744774103165</v>
+        <v>0.8638002872467041</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3939175605773926</v>
+        <v>1.126405239105225</v>
       </c>
       <c r="I16" t="n">
-        <v>0.227883443236351</v>
+        <v>0.9873788356781006</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_4</t>
+          <t>model_3_1_14</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7965185543232487</v>
+        <v>0.4228577919836178</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9633885929795895</v>
+        <v>0.2851611435595762</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5819107163766134</v>
+        <v>-0.1138181600271284</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8763751011082592</v>
+        <v>0.1198658463882191</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2251940071582794</v>
+        <v>0.6387263536453247</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07594507932662964</v>
+        <v>0.8646126985549927</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3905972838401794</v>
+        <v>1.117848753929138</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2240166962146759</v>
+        <v>0.9837823510169983</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_8</t>
+          <t>model_3_1_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7970868108949185</v>
+        <v>0.4229449346633816</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9503023282103964</v>
+        <v>0.2966990705263038</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5668592508501968</v>
+        <v>-0.1411077750290963</v>
       </c>
       <c r="E18" t="n">
-        <v>0.864792505397778</v>
+        <v>0.1149447470356773</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2245651185512543</v>
+        <v>0.6386299133300781</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1030906438827515</v>
+        <v>0.8506572842597961</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4046590328216553</v>
+        <v>1.14523708820343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2450051605701447</v>
+        <v>0.9892830848693848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_7</t>
+          <t>model_3_1_4</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7977916514015614</v>
+        <v>0.4230840833677169</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9515397503754364</v>
+        <v>0.2208521905157045</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5765932591881282</v>
+        <v>0.1088730531513687</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8679040495009077</v>
+        <v>0.1771190752729923</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2237850576639175</v>
+        <v>0.6384759545326233</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1005237996578217</v>
+        <v>0.9423957467079163</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3955650925636292</v>
+        <v>0.8943517208099365</v>
       </c>
       <c r="I19" t="n">
-        <v>0.239366814494133</v>
+        <v>0.9197867512702942</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_21</t>
+          <t>model_3_1_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7981839344005447</v>
+        <v>0.4239896329582331</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9443464506539467</v>
+        <v>0.22157972355688</v>
       </c>
       <c r="D20" t="n">
-        <v>0.529355258521982</v>
+        <v>0.1107076003281058</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8520838001195823</v>
+        <v>0.1783107561288255</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2233509123325348</v>
+        <v>0.6374737024307251</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1154452562332153</v>
+        <v>0.9415156841278076</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4396969079971313</v>
+        <v>0.8925105333328247</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2680341899394989</v>
+        <v>0.918454647064209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_24</t>
+          <t>model_3_1_1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7983200763381089</v>
+        <v>0.4241479393855609</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9424572928327321</v>
+        <v>0.2378741848211962</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5259023108802801</v>
+        <v>0.1608706814201163</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8501010460065866</v>
+        <v>0.2088410401937679</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2232002466917038</v>
+        <v>0.6372985243797302</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1193640381097794</v>
+        <v>0.9218072891235352</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4429228007793427</v>
+        <v>0.8421658873558044</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2716270983219147</v>
+        <v>0.884329080581665</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_11</t>
+          <t>model_3_1_17</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.798393269479145</v>
+        <v>0.4241853367472079</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9531101734535846</v>
+        <v>0.2976635572887913</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5613892276363808</v>
+        <v>-0.1308888562054242</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8651670202909465</v>
+        <v>0.1198149387725937</v>
       </c>
       <c r="F22" t="n">
-        <v>0.223119243979454</v>
+        <v>0.6372570991516113</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09726618230342865</v>
+        <v>0.8494907021522522</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4097693562507629</v>
+        <v>1.134981155395508</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2443265020847321</v>
+        <v>0.9838391542434692</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_10</t>
+          <t>model_3_1_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7985673678208699</v>
+        <v>0.4244802528636702</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9552211180929614</v>
+        <v>0.2606389186613304</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5629917567055562</v>
+        <v>0.1924712546504692</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8668351825734625</v>
+        <v>0.2352347329204794</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2229265719652176</v>
+        <v>0.6369307637214661</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09288732707500458</v>
+        <v>0.8942728042602539</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4082722067832947</v>
+        <v>0.8104510307312012</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2413036972284317</v>
+        <v>0.8548271059989929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_23</t>
+          <t>model_3_1_16</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7989598679418755</v>
+        <v>0.4270213038272854</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9445254117432033</v>
+        <v>0.2946662127551453</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5270181106980012</v>
+        <v>-0.09954972837390375</v>
       </c>
       <c r="E24" t="n">
-        <v>0.851625129225728</v>
+        <v>0.1313397561789065</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2224921733140945</v>
+        <v>0.6341186165809631</v>
       </c>
       <c r="G24" t="n">
-        <v>0.115074023604393</v>
+        <v>0.8531160354614258</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4418803751468658</v>
+        <v>1.103528738021851</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2688653469085693</v>
+        <v>0.9709572792053223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_22</t>
+          <t>model_3_1_6</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7993744537630684</v>
+        <v>0.434378637612327</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9470221995355795</v>
+        <v>0.2329395146073177</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5269847316444287</v>
+        <v>0.1538724210486149</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8531301748164166</v>
+        <v>0.2030573382656511</v>
       </c>
       <c r="F25" t="n">
-        <v>0.222033366560936</v>
+        <v>0.6259761452674866</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1098948046565056</v>
+        <v>0.9277758002281189</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4419115483760834</v>
+        <v>0.8491895198822021</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2661380767822266</v>
+        <v>0.8907938599586487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_1_9</t>
+          <t>model_3_1_7</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.799435216207904</v>
+        <v>0.44020897982787</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9580770621876484</v>
+        <v>0.2403448007179627</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5668449288973003</v>
+        <v>0.1618025437671115</v>
       </c>
       <c r="E26" t="n">
-        <v>0.869500830056417</v>
+        <v>0.2106501843699528</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2219661325216293</v>
+        <v>0.6195237040519714</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08696308732032776</v>
+        <v>0.9188190102577209</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4046724438667297</v>
+        <v>0.8412306308746338</v>
       </c>
       <c r="I26" t="n">
-        <v>0.236473336815834</v>
+        <v>0.8823068141937256</v>
       </c>
     </row>
   </sheetData>
